--- a/data/3-analysis/output-results/tables/subgroup-matrix-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/subgroup-matrix-2023-11-28.xlsx
@@ -409,17 +409,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>117/231, 50.6% (95%CI 44.2-57%)</t>
+          <t>117/230, 50.9% (95%CI 44.4-57.3%)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5/231, 2.2% (95%CI 0.9-5%)</t>
+          <t>5/230, 2.2% (95%CI 0.9-5%)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>172/231, 74.5% (95%CI 68.5-79.7%)</t>
+          <t>172/230, 74.8% (95%CI 68.8-80%)</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1092/2113, 51.7% (95%CI 49.5-53.8%)</t>
+          <t>1092/2112, 51.7% (95%CI 49.6-53.8%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>42/2113, 2% (95%CI 1.5-2.7%)</t>
+          <t>42/2112, 2% (95%CI 1.5-2.7%)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1638/2113, 77.5% (95%CI 75.7-79.2%)</t>
+          <t>1638/2112, 77.6% (95%CI 75.7-79.3%)</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>708/1438, 49.2% (95%CI 46.7-51.8%)</t>
+          <t>707/1437, 49.2% (95%CI 46.6-51.8%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10/1438, 0.7% (95%CI 0.4-1.3%)</t>
+          <t>10/1437, 0.7% (95%CI 0.4-1.3%)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1088/1438, 75.7% (95%CI 73.4-77.8%)</t>
+          <t>1087/1437, 75.6% (95%CI 73.4-77.8%)</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>810/1587, 51% (95%CI 48.6-53.5%)</t>
+          <t>810/1586, 51.1% (95%CI 48.6-53.5%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>32/1587, 2% (95%CI 1.4-2.8%)</t>
+          <t>32/1586, 2% (95%CI 1.4-2.8%)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1210/1587, 76.2% (95%CI 74.1-78.3%)</t>
+          <t>1210/1586, 76.3% (95%CI 74.1-78.3%)</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1018/1955, 52.1% (95%CI 49.9-54.3%)</t>
+          <t>1018/1954, 52.1% (95%CI 49.9-54.3%)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39/1955, 2% (95%CI 1.5-2.7%)</t>
+          <t>39/1954, 2% (95%CI 1.5-2.7%)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1524/1955, 78% (95%CI 76.1-79.7%)</t>
+          <t>1524/1954, 78% (95%CI 76.1-79.8%)</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>333/705, 47.2% (95%CI 43.6-50.9%)</t>
+          <t>333/704, 47.3% (95%CI 43.6-51%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22/705, 3.1% (95%CI 2.1-4.7%)</t>
+          <t>22/704, 3.1% (95%CI 2.1-4.7%)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>515/705, 73% (95%CI 69.7-76.2%)</t>
+          <t>515/704, 73.2% (95%CI 69.8-76.3%)</t>
         </is>
       </c>
     </row>

--- a/data/3-analysis/output-results/tables/subgroup-matrix-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/subgroup-matrix-2023-11-28.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>567/1019, 55.6% (95%CI 52.6-58.7%)</t>
+          <t>571/1019, 56% (95%CI 53-59.1%)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23/1019, 2.3% (95%CI 1.5-3.4%)</t>
+          <t>28/1019, 2.7% (95%CI 1.9-3.9%)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>827/1019, 81.2% (95%CI 78.6-83.4%)</t>
+          <t>837/1019, 82.1% (95%CI 79.7-84.4%)</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>117/230, 50.9% (95%CI 44.4-57.3%)</t>
+          <t>118/230, 51.3% (95%CI 44.9-57.7%)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -419,7 +419,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>172/230, 74.8% (95%CI 68.8-80%)</t>
+          <t>173/230, 75.2% (95%CI 69.3-80.4%)</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13/525, 2.5% (95%CI 1.5-4.2%)</t>
+          <t>14/525, 2.7% (95%CI 1.6-4.4%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>397/525, 75.6% (95%CI 71.8-79.1%)</t>
+          <t>398/525, 75.8% (95%CI 72-79.3%)</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1092/2112, 51.7% (95%CI 49.6-53.8%)</t>
+          <t>1097/2112, 51.9% (95%CI 49.8-54.1%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>42/2112, 2% (95%CI 1.5-2.7%)</t>
+          <t>48/2112, 2.3% (95%CI 1.7-3%)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1638/2112, 77.6% (95%CI 75.7-79.3%)</t>
+          <t>1650/2112, 78.1% (95%CI 76.3-79.8%)</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>282/526, 53.6% (95%CI 49.3-57.8%)</t>
+          <t>284/526, 54% (95%CI 49.7-58.2%)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10/526, 1.9% (95%CI 1-3.5%)</t>
+          <t>13/526, 2.5% (95%CI 1.4-4.2%)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>428/526, 81.4% (95%CI 77.8-84.5%)</t>
+          <t>431/526, 81.9% (95%CI 78.4-85%)</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>810/1586, 51.1% (95%CI 48.6-53.5%)</t>
+          <t>813/1586, 51.3% (95%CI 48.8-53.7%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>32/1586, 2% (95%CI 1.4-2.8%)</t>
+          <t>35/1586, 2.2% (95%CI 1.6-3.1%)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1210/1586, 76.3% (95%CI 74.1-78.3%)</t>
+          <t>1219/1586, 76.9% (95%CI 74.7-78.9%)</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3/158, 1.9% (95%CI 0.6-5.4%)</t>
+          <t>4/158, 2.5% (95%CI 1-6.3%)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>114/158, 72.2% (95%CI 64.7-78.6%)</t>
+          <t>117/158, 74.1% (95%CI 66.7-80.3%)</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1018/1954, 52.1% (95%CI 49.9-54.3%)</t>
+          <t>1023/1954, 52.4% (95%CI 50.1-54.6%)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39/1954, 2% (95%CI 1.5-2.7%)</t>
+          <t>44/1954, 2.3% (95%CI 1.7-3%)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1524/1954, 78% (95%CI 76.1-79.8%)</t>
+          <t>1533/1954, 78.5% (95%CI 76.6-80.2%)</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>333/704, 47.3% (95%CI 43.6-51%)</t>
+          <t>334/704, 47.4% (95%CI 43.8-51.1%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22/704, 3.1% (95%CI 2.1-4.7%)</t>
+          <t>25/704, 3.6% (95%CI 2.4-5.2%)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>515/704, 73.2% (95%CI 69.8-76.3%)</t>
+          <t>522/704, 74.1% (95%CI 70.8-77.2%)</t>
         </is>
       </c>
     </row>
@@ -651,17 +651,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>358/706, 50.7% (95%CI 47-54.4%)</t>
+          <t>359/706, 50.8% (95%CI 47.2-54.5%)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9/706, 1.3% (95%CI 0.7-2.4%)</t>
+          <t>11/706, 1.6% (95%CI 0.9-2.8%)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>540/706, 76.5% (95%CI 73.2-79.5%)</t>
+          <t>545/706, 77.2% (95%CI 74-80.1%)</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>401/701, 57.2% (95%CI 53.5-60.8%)</t>
+          <t>404/701, 57.6% (95%CI 53.9-61.2%)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11/701, 1.6% (95%CI 0.9-2.8%)</t>
+          <t>12/701, 1.7% (95%CI 1-3%)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
